--- a/mmo_excel/xlsx/skill.xlsx
+++ b/mmo_excel/xlsx/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DBFA39-CC9D-46A0-B03A-83B48036BAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23E218-A4BB-48AB-B11D-5C29A2C2C452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="2685" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重重砸向敌人，造成大量伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奋力一跳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,38 @@
   </si>
   <si>
     <t>治疗多个友方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重重打击敌人，造成大量伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型 
+1、无需目标，直接释放
+2、点地释放
+3、对非敌方释放
+4、对敌方释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,8 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,18 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="52.375" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +518,17 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,8 +541,17 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -513,8 +564,17 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -527,8 +587,17 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -536,108 +605,177 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1101</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1102</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1103</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1104</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12">
         <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/mmo_excel/xlsx/skill.xlsx
+++ b/mmo_excel/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23E218-A4BB-48AB-B11D-5C29A2C2C452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E9699-FFFF-4B4E-A042-79489E79013E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个快速移动的匕首，射向目标造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命魔链</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
   </si>
   <si>
     <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重重打击敌人，造成大量伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,6 +156,22 @@
   </si>
   <si>
     <t>施法距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成自己攻击力的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个快速移动的匕首，射向目标造成自己攻击力的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,20 +500,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="52.375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="42.125" customWidth="1"/>
     <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,16 +528,19 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -542,16 +554,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -573,8 +588,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -596,8 +614,11 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -605,12 +626,9 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
@@ -619,8 +637,11 @@
       <c r="G5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -642,16 +663,19 @@
       <c r="G6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -665,8 +689,11 @@
       <c r="G7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -686,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1101</v>
       </c>
@@ -694,12 +721,9 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
@@ -708,16 +732,19 @@
       <c r="G9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1102</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -731,8 +758,11 @@
       <c r="G10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1103</v>
       </c>
@@ -754,16 +784,19 @@
       <c r="G11">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1104</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -776,6 +809,9 @@
       </c>
       <c r="G12">
         <v>400</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mmo_excel/xlsx/skill.xlsx
+++ b/mmo_excel/xlsx/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E9699-FFFF-4B4E-A042-79489E79013E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B94515-2E9B-47E6-8BC0-DB83B255B567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>一个快速移动的匕首，射向目标造成自己攻击力的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,21 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="52.375" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="42.125" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +547,11 @@
       <c r="H1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -565,8 +576,11 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -591,8 +605,11 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -617,8 +634,11 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -641,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -666,8 +686,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -693,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -712,8 +735,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1101</v>
       </c>
@@ -736,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1102</v>
       </c>
@@ -762,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1103</v>
       </c>
@@ -788,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1104</v>
       </c>

--- a/mmo_excel/xlsx/skill.xlsx
+++ b/mmo_excel/xlsx/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B94515-2E9B-47E6-8BC0-DB83B255B567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63259D9D-C717-4146-B436-E1AF459AA235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -735,6 +735,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
       <c r="I8">
         <v>300</v>
       </c>
@@ -787,6 +790,9 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -812,6 +818,9 @@
       </c>
       <c r="H11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
